--- a/data/pca/factorExposure/factorExposure_2017-09-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02369000109144999</v>
+        <v>-0.006799797420551089</v>
       </c>
       <c r="C2">
-        <v>0.0009347607916005819</v>
+        <v>0.04164664902942</v>
       </c>
       <c r="D2">
-        <v>-0.01540504052333471</v>
+        <v>-0.02957758996683712</v>
       </c>
       <c r="E2">
-        <v>0.008493562123030613</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03239794446987832</v>
+      </c>
+      <c r="F2">
+        <v>0.02346193294622951</v>
+      </c>
+      <c r="G2">
+        <v>0.04011185459662139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01375614506556242</v>
+        <v>-0.05182438647981948</v>
       </c>
       <c r="C3">
-        <v>0.04883218249703739</v>
+        <v>0.07448270064957349</v>
       </c>
       <c r="D3">
-        <v>-0.005881606201412795</v>
+        <v>-0.01459875639662987</v>
       </c>
       <c r="E3">
-        <v>0.002368008303410722</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09097860101526417</v>
+      </c>
+      <c r="F3">
+        <v>0.06192538505784154</v>
+      </c>
+      <c r="G3">
+        <v>0.0848137422281099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02212026940464959</v>
+        <v>-0.05489679016417763</v>
       </c>
       <c r="C4">
-        <v>0.01609715825003851</v>
+        <v>0.06274138305688308</v>
       </c>
       <c r="D4">
-        <v>-0.06202578426438005</v>
+        <v>-0.02320296132363051</v>
       </c>
       <c r="E4">
-        <v>-0.01765817681406789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01745711685886241</v>
+      </c>
+      <c r="F4">
+        <v>0.008730120644078153</v>
+      </c>
+      <c r="G4">
+        <v>0.05839414237085826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0151422220159306</v>
+        <v>-0.03663657899378389</v>
       </c>
       <c r="C6">
-        <v>0.01808174811497927</v>
+        <v>0.04850557201003437</v>
       </c>
       <c r="D6">
-        <v>-0.07763306996084932</v>
+        <v>-0.01542134777800472</v>
       </c>
       <c r="E6">
-        <v>-0.008871436055795578</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01697044371248767</v>
+      </c>
+      <c r="F6">
+        <v>0.01382358508510204</v>
+      </c>
+      <c r="G6">
+        <v>0.03566814042976605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.009966243322092169</v>
+        <v>-0.01512831574112305</v>
       </c>
       <c r="C7">
-        <v>0.0008666439335573166</v>
+        <v>0.03557266367587234</v>
       </c>
       <c r="D7">
-        <v>-0.03044000019029463</v>
+        <v>-0.0133739830789091</v>
       </c>
       <c r="E7">
-        <v>-0.07295109368427137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.008541232685126989</v>
+      </c>
+      <c r="F7">
+        <v>0.00653686291028885</v>
+      </c>
+      <c r="G7">
+        <v>0.09443727407574548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0003073542103909197</v>
+        <v>0.001877389689124434</v>
       </c>
       <c r="C8">
-        <v>-0.002496114013692059</v>
+        <v>0.01853430758343168</v>
       </c>
       <c r="D8">
-        <v>-0.004382137766635926</v>
+        <v>-0.003809711118907756</v>
       </c>
       <c r="E8">
-        <v>-0.00845365879416559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02255152526262258</v>
+      </c>
+      <c r="F8">
+        <v>0.02423818367360626</v>
+      </c>
+      <c r="G8">
+        <v>0.02933246844905694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01494210964423448</v>
+        <v>-0.03084722024900797</v>
       </c>
       <c r="C9">
-        <v>0.01598927960505362</v>
+        <v>0.04368954137344771</v>
       </c>
       <c r="D9">
-        <v>-0.04753493137729816</v>
+        <v>-0.01602667649647611</v>
       </c>
       <c r="E9">
-        <v>-0.007379349334893022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01269489770955259</v>
+      </c>
+      <c r="F9">
+        <v>0.01381116355449496</v>
+      </c>
+      <c r="G9">
+        <v>0.05186366812798184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01317637646570526</v>
+        <v>-0.09354821392816037</v>
       </c>
       <c r="C10">
-        <v>0.1637302023144357</v>
+        <v>-0.1840584744086226</v>
       </c>
       <c r="D10">
-        <v>0.1180080055899773</v>
+        <v>0.01770629089475344</v>
       </c>
       <c r="E10">
-        <v>-0.009740360761785194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.009667963900123132</v>
+      </c>
+      <c r="F10">
+        <v>-0.01877478556715416</v>
+      </c>
+      <c r="G10">
+        <v>0.04898014889963613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0002523713376100182</v>
+        <v>-0.03066910587147046</v>
       </c>
       <c r="C11">
-        <v>0.005912462940622219</v>
+        <v>0.05370937921487017</v>
       </c>
       <c r="D11">
-        <v>-0.04368345850333306</v>
+        <v>-0.00234082925117009</v>
       </c>
       <c r="E11">
-        <v>0.0074385961953138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.007494549331153691</v>
+      </c>
+      <c r="F11">
+        <v>0.02435833213139536</v>
+      </c>
+      <c r="G11">
+        <v>0.03311873960516861</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005658300895199006</v>
+        <v>-0.0305455546596319</v>
       </c>
       <c r="C12">
-        <v>0.01403930527194204</v>
+        <v>0.04662042550904674</v>
       </c>
       <c r="D12">
-        <v>-0.04517883248251087</v>
+        <v>-0.006337878475751138</v>
       </c>
       <c r="E12">
-        <v>-0.001880412461548018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001035615796964579</v>
+      </c>
+      <c r="F12">
+        <v>0.008609618029327099</v>
+      </c>
+      <c r="G12">
+        <v>0.03501244440706786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02149259076740451</v>
+        <v>-0.01439957831154581</v>
       </c>
       <c r="C13">
-        <v>0.01212909403428592</v>
+        <v>0.03204967918845756</v>
       </c>
       <c r="D13">
-        <v>-0.01329512977434386</v>
+        <v>-0.02503006770612797</v>
       </c>
       <c r="E13">
-        <v>0.006753500057160368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02292533141651084</v>
+      </c>
+      <c r="F13">
+        <v>0.01427995719696858</v>
+      </c>
+      <c r="G13">
+        <v>0.04960501879143345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00708824445855133</v>
+        <v>-0.007506957196792737</v>
       </c>
       <c r="C14">
-        <v>0.01167091846630495</v>
+        <v>0.02577452091121659</v>
       </c>
       <c r="D14">
-        <v>-0.01472155326075146</v>
+        <v>-0.008713443477904217</v>
       </c>
       <c r="E14">
-        <v>-0.01256097914234787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004920995736403606</v>
+      </c>
+      <c r="F14">
+        <v>-0.001787349521553858</v>
+      </c>
+      <c r="G14">
+        <v>0.05176523058698603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0008599254519213842</v>
+        <v>-0.03043947096818461</v>
       </c>
       <c r="C16">
-        <v>0.01355577600951638</v>
+        <v>0.04457147360188756</v>
       </c>
       <c r="D16">
-        <v>-0.04618324540931491</v>
+        <v>-0.001742598081119242</v>
       </c>
       <c r="E16">
-        <v>0.0002954877165725593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.006757207577017353</v>
+      </c>
+      <c r="F16">
+        <v>0.01152634700762235</v>
+      </c>
+      <c r="G16">
+        <v>0.03375477601223444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01325615437167642</v>
+        <v>-0.02327643170208483</v>
       </c>
       <c r="C19">
-        <v>0.02453732366143176</v>
+        <v>0.04789074016256545</v>
       </c>
       <c r="D19">
-        <v>-0.01943310738879</v>
+        <v>-0.01636311926442586</v>
       </c>
       <c r="E19">
-        <v>-0.004822376881507573</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05489681255385153</v>
+      </c>
+      <c r="F19">
+        <v>0.02686382945668992</v>
+      </c>
+      <c r="G19">
+        <v>0.06229422237333807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.009996552209985469</v>
+        <v>-0.01158700673979907</v>
       </c>
       <c r="C20">
-        <v>0.003885966504390599</v>
+        <v>0.03356667676914985</v>
       </c>
       <c r="D20">
-        <v>-0.01152206108126574</v>
+        <v>-0.01320848154430666</v>
       </c>
       <c r="E20">
-        <v>-0.0004654654134155051</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02425885008896965</v>
+      </c>
+      <c r="F20">
+        <v>6.75692827653244e-06</v>
+      </c>
+      <c r="G20">
+        <v>0.05059829574935792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01435311008465777</v>
+        <v>-0.01348693826973292</v>
       </c>
       <c r="C21">
-        <v>0.0294908651439453</v>
+        <v>0.03587154297854067</v>
       </c>
       <c r="D21">
-        <v>-0.01993819954967431</v>
+        <v>-0.0166182726383177</v>
       </c>
       <c r="E21">
-        <v>-0.01926971449805738</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03088311352456347</v>
+      </c>
+      <c r="F21">
+        <v>0.006928627546806518</v>
+      </c>
+      <c r="G21">
+        <v>0.07218464420103855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004715937899061286</v>
+        <v>-0.02404968617278807</v>
       </c>
       <c r="C24">
-        <v>0.003813446299086513</v>
+        <v>0.04768960991071793</v>
       </c>
       <c r="D24">
-        <v>-0.04301397320995748</v>
+        <v>-0.007269086210091815</v>
       </c>
       <c r="E24">
-        <v>0.001803831742613936</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.003482455528159662</v>
+      </c>
+      <c r="F24">
+        <v>0.02095156656588581</v>
+      </c>
+      <c r="G24">
+        <v>0.03603707252826785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01146450359844273</v>
+        <v>-0.03870723413623841</v>
       </c>
       <c r="C25">
-        <v>0.02153483127469067</v>
+        <v>0.05562670303940352</v>
       </c>
       <c r="D25">
-        <v>-0.04368818266800396</v>
+        <v>-0.01138292444419299</v>
       </c>
       <c r="E25">
-        <v>0.001483703629553552</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.003985208949188282</v>
+      </c>
+      <c r="F25">
+        <v>0.01656532351194627</v>
+      </c>
+      <c r="G25">
+        <v>0.04222363050068533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02268577508563977</v>
+        <v>-0.01205391187877908</v>
       </c>
       <c r="C26">
-        <v>0.01059121755543812</v>
+        <v>0.008994417715472392</v>
       </c>
       <c r="D26">
-        <v>0.006032219672242869</v>
+        <v>-0.02339794955345237</v>
       </c>
       <c r="E26">
-        <v>-0.008860025714795425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.003172561259807373</v>
+      </c>
+      <c r="F26">
+        <v>-0.0001473658634336188</v>
+      </c>
+      <c r="G26">
+        <v>0.03840999223020073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.03276175091321892</v>
+        <v>-0.1207597869929758</v>
       </c>
       <c r="C28">
-        <v>0.2403327182150548</v>
+        <v>-0.23009319641149</v>
       </c>
       <c r="D28">
-        <v>0.1656538338943906</v>
+        <v>0.008761943721655516</v>
       </c>
       <c r="E28">
-        <v>-0.01651372216244796</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.002098220847214508</v>
+      </c>
+      <c r="F28">
+        <v>-0.01709214317793101</v>
+      </c>
+      <c r="G28">
+        <v>0.06555748643086359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007382105342178781</v>
+        <v>-0.01046188696689374</v>
       </c>
       <c r="C29">
-        <v>0.01735279277968439</v>
+        <v>0.01976745357599669</v>
       </c>
       <c r="D29">
-        <v>-0.01098096403674139</v>
+        <v>-0.007479293580286629</v>
       </c>
       <c r="E29">
-        <v>-0.007156191147952568</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.007452827841940533</v>
+      </c>
+      <c r="F29">
+        <v>-0.01050723586290754</v>
+      </c>
+      <c r="G29">
+        <v>0.04179634815191372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02280923115777388</v>
+        <v>-0.04403878664505035</v>
       </c>
       <c r="C30">
-        <v>-0.001111579878015272</v>
+        <v>0.06368298833619367</v>
       </c>
       <c r="D30">
-        <v>-0.06663362151366323</v>
+        <v>-0.02755376887845397</v>
       </c>
       <c r="E30">
-        <v>0.05562189887736103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04375736357112408</v>
+      </c>
+      <c r="F30">
+        <v>0.05475288142792537</v>
+      </c>
+      <c r="G30">
+        <v>0.02280710163902472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.007833701231404023</v>
+        <v>-0.04929894694711075</v>
       </c>
       <c r="C31">
-        <v>0.04329272310551785</v>
+        <v>0.03472204873454091</v>
       </c>
       <c r="D31">
-        <v>-0.04392961140498285</v>
+        <v>-0.003598756989541412</v>
       </c>
       <c r="E31">
-        <v>-0.009179466306068891</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.00562358431376708</v>
+      </c>
+      <c r="F31">
+        <v>-0.03337927254133707</v>
+      </c>
+      <c r="G31">
+        <v>0.04380678713301269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007178133654075004</v>
+        <v>0.00337942371781509</v>
       </c>
       <c r="C32">
-        <v>0.01696265783086356</v>
+        <v>0.03131658126566089</v>
       </c>
       <c r="D32">
-        <v>0.00346255947332693</v>
+        <v>0.003989227464140466</v>
       </c>
       <c r="E32">
-        <v>-0.0314185082582667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01456595751298131</v>
+      </c>
+      <c r="F32">
+        <v>0.053887140516931</v>
+      </c>
+      <c r="G32">
+        <v>0.06151797199517713</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01233333525832819</v>
+        <v>-0.0263540199866616</v>
       </c>
       <c r="C33">
-        <v>0.02244036292719912</v>
+        <v>0.04677780266031996</v>
       </c>
       <c r="D33">
-        <v>-0.02271418076413118</v>
+        <v>-0.01450197111575921</v>
       </c>
       <c r="E33">
-        <v>0.02296027728786051</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02692937792452195</v>
+      </c>
+      <c r="F33">
+        <v>0.02714032775565238</v>
+      </c>
+      <c r="G33">
+        <v>0.05298558462971381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004746514288619546</v>
+        <v>-0.03795295284019954</v>
       </c>
       <c r="C34">
-        <v>0.01890540263944798</v>
+        <v>0.05792938980625097</v>
       </c>
       <c r="D34">
-        <v>-0.04700426964705316</v>
+        <v>0.004423309632265127</v>
       </c>
       <c r="E34">
-        <v>-0.007449662352208578</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.003683094548989289</v>
+      </c>
+      <c r="F34">
+        <v>0.02665997822494387</v>
+      </c>
+      <c r="G34">
+        <v>0.0465368985662419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01200180012611591</v>
+        <v>-0.01170207566771071</v>
       </c>
       <c r="C36">
-        <v>0.01869867045699897</v>
+        <v>0.007734023038725633</v>
       </c>
       <c r="D36">
-        <v>-0.001451195721460129</v>
+        <v>-0.01150946183236042</v>
       </c>
       <c r="E36">
-        <v>-0.003839790157743059</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0004001243731088591</v>
+      </c>
+      <c r="F36">
+        <v>-0.004567795285938852</v>
+      </c>
+      <c r="G36">
+        <v>0.03498565367530988</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.004996905316037591</v>
+        <v>-0.03144990164595179</v>
       </c>
       <c r="C38">
-        <v>0.03420740772918514</v>
+        <v>0.02847996839288873</v>
       </c>
       <c r="D38">
-        <v>-0.02489108822438809</v>
+        <v>0.007504982297527541</v>
       </c>
       <c r="E38">
-        <v>0.0001604659924254976</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.005201465470749761</v>
+      </c>
+      <c r="F38">
+        <v>-0.006928402682109866</v>
+      </c>
+      <c r="G38">
+        <v>0.04236936445560874</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005776468115229207</v>
+        <v>-0.03066193786104027</v>
       </c>
       <c r="C39">
-        <v>-0.01731279073156097</v>
+        <v>0.08113731472890556</v>
       </c>
       <c r="D39">
-        <v>-0.09186543285653326</v>
+        <v>-0.01216700022330889</v>
       </c>
       <c r="E39">
-        <v>0.005837144966202977</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02215354216431019</v>
+      </c>
+      <c r="F39">
+        <v>0.03768574773288122</v>
+      </c>
+      <c r="G39">
+        <v>0.03945639597320411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01013176397275661</v>
+        <v>-0.01893573311282623</v>
       </c>
       <c r="C40">
-        <v>0.01035078303294567</v>
+        <v>0.03203506811128298</v>
       </c>
       <c r="D40">
-        <v>-0.03623632264018813</v>
+        <v>-0.01325127729456284</v>
       </c>
       <c r="E40">
-        <v>0.002746672178597398</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01986184193162852</v>
+      </c>
+      <c r="F40">
+        <v>0.01995534453544924</v>
+      </c>
+      <c r="G40">
+        <v>0.03649660906877013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.005368373993636802</v>
+        <v>-0.01052838084093331</v>
       </c>
       <c r="C41">
-        <v>0.02078419333160424</v>
+        <v>0.0007423165103234482</v>
       </c>
       <c r="D41">
-        <v>0.009586049127663707</v>
+        <v>-0.004057478350809247</v>
       </c>
       <c r="E41">
-        <v>-0.003031102480761935</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.001072599443981553</v>
+      </c>
+      <c r="F41">
+        <v>0.0007677633664136762</v>
+      </c>
+      <c r="G41">
+        <v>0.02471051406348797</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09274337539758425</v>
+        <v>-0.01467418509343801</v>
       </c>
       <c r="C42">
-        <v>-0.00962216733577701</v>
+        <v>0.04224250495878736</v>
       </c>
       <c r="D42">
-        <v>-0.2797579060473144</v>
+        <v>-0.09436754335663629</v>
       </c>
       <c r="E42">
-        <v>0.2673222959013425</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03576557938525961</v>
+      </c>
+      <c r="F42">
+        <v>-0.04649624873664772</v>
+      </c>
+      <c r="G42">
+        <v>-0.1561978563844388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.006536381680232366</v>
+        <v>-0.02794907441272055</v>
       </c>
       <c r="C43">
-        <v>0.02326952694916055</v>
+        <v>0.01194040751639326</v>
       </c>
       <c r="D43">
-        <v>0.01402374133383394</v>
+        <v>-0.004758660380128895</v>
       </c>
       <c r="E43">
-        <v>0.003291698594912814</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.007973740606218303</v>
+      </c>
+      <c r="F43">
+        <v>-0.0007975236340861557</v>
+      </c>
+      <c r="G43">
+        <v>0.0354417991312004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002872567263082073</v>
+        <v>-0.0134066278893891</v>
       </c>
       <c r="C44">
-        <v>0.002359709795284906</v>
+        <v>0.04842144574347634</v>
       </c>
       <c r="D44">
-        <v>-0.02637358662118135</v>
+        <v>-0.006451487901498294</v>
       </c>
       <c r="E44">
-        <v>-0.004479175054452456</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01721466835020544</v>
+      </c>
+      <c r="F44">
+        <v>0.005659494308883481</v>
+      </c>
+      <c r="G44">
+        <v>0.05315671173693518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01061155888600582</v>
+        <v>-0.004319176242856415</v>
       </c>
       <c r="C46">
-        <v>0.01681585883527021</v>
+        <v>0.01723918199810648</v>
       </c>
       <c r="D46">
-        <v>-0.01012749110310736</v>
+        <v>-0.01166174709864595</v>
       </c>
       <c r="E46">
-        <v>-0.002469405854083927</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.005368107919539354</v>
+      </c>
+      <c r="F46">
+        <v>-0.01486270184677511</v>
+      </c>
+      <c r="G46">
+        <v>0.03984873052724843</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.001913518122902756</v>
+        <v>-0.07482624033410948</v>
       </c>
       <c r="C47">
-        <v>0.0549288332661453</v>
+        <v>0.06684522667654755</v>
       </c>
       <c r="D47">
-        <v>-0.0565180863484685</v>
+        <v>0.004701597855545278</v>
       </c>
       <c r="E47">
-        <v>0.001194910611097889</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009238177886554509</v>
+      </c>
+      <c r="F47">
+        <v>-0.05131260545173093</v>
+      </c>
+      <c r="G47">
+        <v>0.04009864288135555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002856711047634061</v>
+        <v>-0.02004953422757525</v>
       </c>
       <c r="C48">
-        <v>0.02670124277300702</v>
+        <v>0.0100623380147435</v>
       </c>
       <c r="D48">
-        <v>-0.01134660767414985</v>
+        <v>-0.0008501098706981167</v>
       </c>
       <c r="E48">
-        <v>-0.002796761751949187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004280162927226591</v>
+      </c>
+      <c r="F48">
+        <v>-0.01387780400449657</v>
+      </c>
+      <c r="G48">
+        <v>0.04075911092032665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.002749159987560189</v>
+        <v>-0.07780072600864994</v>
       </c>
       <c r="C50">
-        <v>0.04513087897663573</v>
+        <v>0.06903740419405857</v>
       </c>
       <c r="D50">
-        <v>-0.06174254442225279</v>
+        <v>0.003050711309309325</v>
       </c>
       <c r="E50">
-        <v>-0.02609345442385239</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01294018172145826</v>
+      </c>
+      <c r="F50">
+        <v>-0.05314222870091271</v>
+      </c>
+      <c r="G50">
+        <v>0.06439869534939893</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007216777380519018</v>
+        <v>-0.01089639587820825</v>
       </c>
       <c r="C51">
-        <v>0.02013805069903908</v>
+        <v>0.02749051729237804</v>
       </c>
       <c r="D51">
-        <v>0.007756883911284227</v>
+        <v>-0.009323894790792427</v>
       </c>
       <c r="E51">
-        <v>-0.009692553481300714</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01140452256248923</v>
+      </c>
+      <c r="F51">
+        <v>0.02176775325152009</v>
+      </c>
+      <c r="G51">
+        <v>0.06799274047920802</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.004777188533300748</v>
+        <v>-0.0814514088066994</v>
       </c>
       <c r="C53">
-        <v>0.06893639803816294</v>
+        <v>0.08135358425654579</v>
       </c>
       <c r="D53">
-        <v>-0.1168688404680344</v>
+        <v>0.004033379316010002</v>
       </c>
       <c r="E53">
-        <v>-0.008917492223281932</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03327827723929257</v>
+      </c>
+      <c r="F53">
+        <v>-0.05566556322937353</v>
+      </c>
+      <c r="G53">
+        <v>0.04157700499470424</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0002876242327470784</v>
+        <v>-0.03065374537212831</v>
       </c>
       <c r="C54">
-        <v>0.03684026966299755</v>
+        <v>0.01251814571462949</v>
       </c>
       <c r="D54">
-        <v>0.007786779650735426</v>
+        <v>0.002865811161884148</v>
       </c>
       <c r="E54">
-        <v>-0.009985862252922029</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0007251460999155656</v>
+      </c>
+      <c r="F54">
+        <v>-0.003935435945085383</v>
+      </c>
+      <c r="G54">
+        <v>0.04482035067565191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.002139920658871971</v>
+        <v>-0.06952253678644327</v>
       </c>
       <c r="C55">
-        <v>0.04992815084218946</v>
+        <v>0.07349431181328726</v>
       </c>
       <c r="D55">
-        <v>-0.1015641118209664</v>
+        <v>0.004458309890095131</v>
       </c>
       <c r="E55">
-        <v>0.003738950522605732</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02484931112493294</v>
+      </c>
+      <c r="F55">
+        <v>-0.05399370396886476</v>
+      </c>
+      <c r="G55">
+        <v>0.02277734601185086</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.002347417761878669</v>
+        <v>-0.1400849934688523</v>
       </c>
       <c r="C56">
-        <v>0.0915851795531506</v>
+        <v>0.1073188540588101</v>
       </c>
       <c r="D56">
-        <v>-0.1501744920261183</v>
+        <v>0.01251202278173552</v>
       </c>
       <c r="E56">
-        <v>0.0013822233488681</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03760021018927484</v>
+      </c>
+      <c r="F56">
+        <v>-0.07915748951941597</v>
+      </c>
+      <c r="G56">
+        <v>0.0111856135424438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02380724294265055</v>
+        <v>-0.009648315209784769</v>
       </c>
       <c r="C57">
-        <v>0.02326873061876467</v>
+        <v>0.00990424182779239</v>
       </c>
       <c r="D57">
-        <v>-0.04034768631436512</v>
+        <v>-0.02353604923177878</v>
       </c>
       <c r="E57">
-        <v>0.002189400999778528</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02665429775292227</v>
+      </c>
+      <c r="F57">
+        <v>0.01433479799458661</v>
+      </c>
+      <c r="G57">
+        <v>0.02463717615991123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01012375527969579</v>
+        <v>-0.08229014701608443</v>
       </c>
       <c r="C58">
-        <v>0.09071274773790092</v>
+        <v>0.03490807769768445</v>
       </c>
       <c r="D58">
-        <v>-0.09143102808372852</v>
+        <v>-0.01508186319441335</v>
       </c>
       <c r="E58">
-        <v>0.2054102270839685</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9458355079050393</v>
+      </c>
+      <c r="F58">
+        <v>-0.2235999710109166</v>
+      </c>
+      <c r="G58">
+        <v>-0.008563588929473946</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.02887750052037218</v>
+        <v>-0.160986576302683</v>
       </c>
       <c r="C59">
-        <v>0.2525982328381169</v>
+        <v>-0.2114249213184793</v>
       </c>
       <c r="D59">
-        <v>0.1681152473231227</v>
+        <v>0.01604524493819838</v>
       </c>
       <c r="E59">
-        <v>0.007023752095901342</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.002576465539208734</v>
+      </c>
+      <c r="F59">
+        <v>-0.001315289642450236</v>
+      </c>
+      <c r="G59">
+        <v>0.02298679283011765</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.03351694337504287</v>
+        <v>-0.2868576995756535</v>
       </c>
       <c r="C60">
-        <v>0.1565430856416919</v>
+        <v>0.1020083672264199</v>
       </c>
       <c r="D60">
-        <v>-0.08742309431658594</v>
+        <v>-0.01115392074512481</v>
       </c>
       <c r="E60">
-        <v>0.04136408584024954</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.002723163272211024</v>
+      </c>
+      <c r="F60">
+        <v>0.3538657546305888</v>
+      </c>
+      <c r="G60">
+        <v>-0.1001513164034637</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003097876959351438</v>
+        <v>-0.03277936776412024</v>
       </c>
       <c r="C61">
-        <v>0.008341880995445044</v>
+        <v>0.0655604011346386</v>
       </c>
       <c r="D61">
-        <v>-0.06592175148131701</v>
+        <v>-0.005504570187862637</v>
       </c>
       <c r="E61">
-        <v>0.002308718858049375</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01074449420603802</v>
+      </c>
+      <c r="F61">
+        <v>0.02304378487907249</v>
+      </c>
+      <c r="G61">
+        <v>0.03485450190201142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007231282308348791</v>
+        <v>-0.0123724255704366</v>
       </c>
       <c r="C63">
-        <v>0.007960438946173718</v>
+        <v>0.02789465165131618</v>
       </c>
       <c r="D63">
-        <v>-0.006584656409353436</v>
+        <v>-0.008104812141619075</v>
       </c>
       <c r="E63">
-        <v>-0.009647613257706069</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.003955944470434252</v>
+      </c>
+      <c r="F63">
+        <v>-0.01393637890516229</v>
+      </c>
+      <c r="G63">
+        <v>0.04604469624421004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.007317939654475434</v>
+        <v>-0.05010360085024234</v>
       </c>
       <c r="C64">
-        <v>0.02854878960423141</v>
+        <v>0.04273673105090114</v>
       </c>
       <c r="D64">
-        <v>-0.0640632377001777</v>
+        <v>-0.005647604916715681</v>
       </c>
       <c r="E64">
-        <v>0.009345317979264165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.005286911041491892</v>
+      </c>
+      <c r="F64">
+        <v>0.006000759829134071</v>
+      </c>
+      <c r="G64">
+        <v>0.03285158772052538</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01741869504098611</v>
+        <v>-0.08426451099066419</v>
       </c>
       <c r="C65">
-        <v>0.02251638101328643</v>
+        <v>0.05920460158827349</v>
       </c>
       <c r="D65">
-        <v>-0.09070131263826707</v>
+        <v>-0.01473864319316943</v>
       </c>
       <c r="E65">
-        <v>-0.007472973387828764</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01793730561586547</v>
+      </c>
+      <c r="F65">
+        <v>0.03587670087648995</v>
+      </c>
+      <c r="G65">
+        <v>0.01665595602511893</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005435996838023841</v>
+        <v>-0.04885776340498687</v>
       </c>
       <c r="C66">
-        <v>-0.0090195926801434</v>
+        <v>0.113780184504247</v>
       </c>
       <c r="D66">
-        <v>-0.1189233273062064</v>
+        <v>-0.01207159085649863</v>
       </c>
       <c r="E66">
-        <v>0.01909804803997734</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02838240226036652</v>
+      </c>
+      <c r="F66">
+        <v>0.0486300387369735</v>
+      </c>
+      <c r="G66">
+        <v>0.03395045495332753</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0005743394419542638</v>
+        <v>-0.05368715841439816</v>
       </c>
       <c r="C67">
-        <v>0.05297129248308213</v>
+        <v>0.03299938092857139</v>
       </c>
       <c r="D67">
-        <v>-0.03002441932508362</v>
+        <v>0.005558156504233628</v>
       </c>
       <c r="E67">
-        <v>0.002086695430046851</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.001193769106051231</v>
+      </c>
+      <c r="F67">
+        <v>-0.01012717545536999</v>
+      </c>
+      <c r="G67">
+        <v>0.03910589908205168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.04720182162223646</v>
+        <v>-0.1439969089193146</v>
       </c>
       <c r="C68">
-        <v>0.2302224138795847</v>
+        <v>-0.269989171869918</v>
       </c>
       <c r="D68">
-        <v>0.1551198891764673</v>
+        <v>-0.002283653740856287</v>
       </c>
       <c r="E68">
-        <v>0.01348355015669086</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.00392361097525617</v>
+      </c>
+      <c r="F68">
+        <v>-0.04174811302054116</v>
+      </c>
+      <c r="G68">
+        <v>0.02452281055022737</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003013769112882581</v>
+        <v>-0.07510884378461205</v>
       </c>
       <c r="C69">
-        <v>0.03901424159827818</v>
+        <v>0.06974944387261912</v>
       </c>
       <c r="D69">
-        <v>-0.06110533773109274</v>
+        <v>0.008426766981017259</v>
       </c>
       <c r="E69">
-        <v>-0.003391205983535288</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02734760866418514</v>
+      </c>
+      <c r="F69">
+        <v>-0.03636603132740759</v>
+      </c>
+      <c r="G69">
+        <v>0.04403976033913995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.03352901526654842</v>
+        <v>-0.1382981897277499</v>
       </c>
       <c r="C71">
-        <v>0.2005647190321849</v>
+        <v>-0.2332055252201329</v>
       </c>
       <c r="D71">
-        <v>0.1437254597102242</v>
+        <v>0.006577692565869295</v>
       </c>
       <c r="E71">
-        <v>-0.001721238744164795</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02249727987870472</v>
+      </c>
+      <c r="F71">
+        <v>-0.01131564508807575</v>
+      </c>
+      <c r="G71">
+        <v>0.03881708874946593</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.001804452332184423</v>
+        <v>-0.08421841050605096</v>
       </c>
       <c r="C72">
-        <v>0.04726871298943189</v>
+        <v>0.07275645857367058</v>
       </c>
       <c r="D72">
-        <v>-0.1313330056395308</v>
+        <v>0.008341999017990577</v>
       </c>
       <c r="E72">
-        <v>0.01862487132057914</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.005031193597074214</v>
+      </c>
+      <c r="F72">
+        <v>0.0417145771324231</v>
+      </c>
+      <c r="G72">
+        <v>0.01471754958221301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.04702717791774522</v>
+        <v>-0.3974684609054821</v>
       </c>
       <c r="C73">
-        <v>0.1868838471212129</v>
+        <v>0.1141378687735164</v>
       </c>
       <c r="D73">
-        <v>-0.1668426122527771</v>
+        <v>-0.01698373484668046</v>
       </c>
       <c r="E73">
-        <v>0.09745948242629233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.05681405676295319</v>
+      </c>
+      <c r="F73">
+        <v>0.5516743594574107</v>
+      </c>
+      <c r="G73">
+        <v>-0.1821248374870234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0003898789292830847</v>
+        <v>-0.1099398390396912</v>
       </c>
       <c r="C74">
-        <v>0.08500013465304519</v>
+        <v>0.1177839158980248</v>
       </c>
       <c r="D74">
-        <v>-0.1541419879953539</v>
+        <v>0.009541130803873126</v>
       </c>
       <c r="E74">
-        <v>0.008773946214330933</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.0157286413324151</v>
+      </c>
+      <c r="F74">
+        <v>-0.07048275123862029</v>
+      </c>
+      <c r="G74">
+        <v>0.04859579596020954</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.004848312554535407</v>
+        <v>-0.2475727666328537</v>
       </c>
       <c r="C75">
-        <v>0.1959664635308287</v>
+        <v>0.1592009820575186</v>
       </c>
       <c r="D75">
-        <v>-0.2804344462050163</v>
+        <v>0.02933928410524619</v>
       </c>
       <c r="E75">
-        <v>0.02737716390574714</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05343669444480151</v>
+      </c>
+      <c r="F75">
+        <v>-0.1862466717934704</v>
+      </c>
+      <c r="G75">
+        <v>-0.03219324223805228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.003631099147786376</v>
+        <v>-0.1238765238912484</v>
       </c>
       <c r="C76">
-        <v>0.1323658275567411</v>
+        <v>0.1212010223227788</v>
       </c>
       <c r="D76">
-        <v>-0.2229327936795241</v>
+        <v>0.02026915296357727</v>
       </c>
       <c r="E76">
-        <v>-0.006976131695710154</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.05040602502451253</v>
+      </c>
+      <c r="F76">
+        <v>-0.1138516962955776</v>
+      </c>
+      <c r="G76">
+        <v>0.02354978866918271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01163019498399982</v>
+        <v>-0.06523019638569809</v>
       </c>
       <c r="C77">
-        <v>0.01603098672458423</v>
+        <v>0.06130894864029372</v>
       </c>
       <c r="D77">
-        <v>-0.05009894992360926</v>
+        <v>-0.01209628575532852</v>
       </c>
       <c r="E77">
-        <v>0.005280599162734869</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.05027442354671667</v>
+      </c>
+      <c r="F77">
+        <v>0.01739728313140218</v>
+      </c>
+      <c r="G77">
+        <v>0.04896676238655875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.003817585032578332</v>
+        <v>-0.04060820418927055</v>
       </c>
       <c r="C78">
-        <v>0.01201386242631256</v>
+        <v>0.05064460302947624</v>
       </c>
       <c r="D78">
-        <v>-0.06583719812272538</v>
+        <v>-0.005526728872005262</v>
       </c>
       <c r="E78">
-        <v>-0.001422746050971906</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02114391533244244</v>
+      </c>
+      <c r="F78">
+        <v>0.04462211857289678</v>
+      </c>
+      <c r="G78">
+        <v>0.04347887887862151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01587086597948619</v>
+        <v>-0.05327428938432018</v>
       </c>
       <c r="C80">
-        <v>0.1252863589836728</v>
+        <v>0.06340436379662159</v>
       </c>
       <c r="D80">
-        <v>-0.1646939701147445</v>
+        <v>-0.01342402277421227</v>
       </c>
       <c r="E80">
-        <v>-0.9133534896388346</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03648894528737735</v>
+      </c>
+      <c r="F80">
+        <v>0.05439111255868881</v>
+      </c>
+      <c r="G80">
+        <v>0.8678855728203539</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.004028382859952056</v>
+        <v>-0.1438030204062453</v>
       </c>
       <c r="C81">
-        <v>0.1220824308004977</v>
+        <v>0.09665149668678179</v>
       </c>
       <c r="D81">
-        <v>-0.1673275678993691</v>
+        <v>0.01479544485964659</v>
       </c>
       <c r="E81">
-        <v>0.006676105551293601</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03115176517896512</v>
+      </c>
+      <c r="F81">
+        <v>-0.1199772324384459</v>
+      </c>
+      <c r="G81">
+        <v>0.02237335689193936</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.09607791255954062</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.05350525770643058</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.004542238530976191</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.07537890375125257</v>
+      </c>
+      <c r="F82">
+        <v>-0.01427819085421536</v>
+      </c>
+      <c r="G82">
+        <v>0.01662234134110509</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.006931938884859212</v>
+        <v>-0.03006934106503609</v>
       </c>
       <c r="C83">
-        <v>0.02718756202162714</v>
+        <v>0.02043586949370711</v>
       </c>
       <c r="D83">
-        <v>-0.0226823901498882</v>
+        <v>-0.005196882705871878</v>
       </c>
       <c r="E83">
-        <v>0.00421925075263387</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02497864897696661</v>
+      </c>
+      <c r="F83">
+        <v>0.02226570643649915</v>
+      </c>
+      <c r="G83">
+        <v>0.03090091376637152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01166249882213203</v>
+        <v>-0.2218282515504368</v>
       </c>
       <c r="C85">
-        <v>0.1490883604001741</v>
+        <v>0.1510610418927077</v>
       </c>
       <c r="D85">
-        <v>-0.2636404516472445</v>
+        <v>0.01776505600601927</v>
       </c>
       <c r="E85">
-        <v>0.03135413471710345</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09444476031945918</v>
+      </c>
+      <c r="F85">
+        <v>-0.1586838908472964</v>
+      </c>
+      <c r="G85">
+        <v>-0.05704068729653956</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.006938878278099862</v>
+        <v>-0.009584784316126504</v>
       </c>
       <c r="C86">
-        <v>0.02574230560150366</v>
+        <v>0.01639724962848861</v>
       </c>
       <c r="D86">
-        <v>-0.009474814329417361</v>
+        <v>-0.01016135387729382</v>
       </c>
       <c r="E86">
-        <v>0.0219335052780533</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03346763202871529</v>
+      </c>
+      <c r="F86">
+        <v>0.03295092434997595</v>
+      </c>
+      <c r="G86">
+        <v>0.07483064169727058</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.00736984259051705</v>
+        <v>-0.01965959302866749</v>
       </c>
       <c r="C87">
-        <v>0.01332527940688024</v>
+        <v>0.02367528935381149</v>
       </c>
       <c r="D87">
-        <v>-0.03944607190275864</v>
+        <v>-0.01070222007655409</v>
       </c>
       <c r="E87">
-        <v>0.001178762616713466</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08288240889334778</v>
+      </c>
+      <c r="F87">
+        <v>0.02989558863203782</v>
+      </c>
+      <c r="G87">
+        <v>0.05946724313122122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02658337401687359</v>
+        <v>-0.08712221433382987</v>
       </c>
       <c r="C88">
-        <v>0.03831666061523227</v>
+        <v>0.06551906893824462</v>
       </c>
       <c r="D88">
-        <v>-0.03606430374451795</v>
+        <v>-0.02292292144207077</v>
       </c>
       <c r="E88">
-        <v>0.003326291321210081</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01461392832619069</v>
+      </c>
+      <c r="F88">
+        <v>-0.01392947485762804</v>
+      </c>
+      <c r="G88">
+        <v>0.03371699497400239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.06337120104219794</v>
+        <v>-0.2286297636873903</v>
       </c>
       <c r="C89">
-        <v>0.3624438345859732</v>
+        <v>-0.3615280132466757</v>
       </c>
       <c r="D89">
-        <v>0.240274786409613</v>
+        <v>0.005452489055241382</v>
       </c>
       <c r="E89">
-        <v>0.02107457804905269</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02230299818365245</v>
+      </c>
+      <c r="F89">
+        <v>-0.02620754984421297</v>
+      </c>
+      <c r="G89">
+        <v>0.03549715480068941</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.04861719741149913</v>
+        <v>-0.2014669417126736</v>
       </c>
       <c r="C90">
-        <v>0.2817365999158973</v>
+        <v>-0.3254246420331599</v>
       </c>
       <c r="D90">
-        <v>0.2224125388272615</v>
+        <v>0.009377871915908258</v>
       </c>
       <c r="E90">
-        <v>0.0210013594783902</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02230353687372881</v>
+      </c>
+      <c r="F90">
+        <v>-0.04461815089848557</v>
+      </c>
+      <c r="G90">
+        <v>0.005841728221508564</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.0006661198345345908</v>
+        <v>-0.197698568783783</v>
       </c>
       <c r="C91">
-        <v>0.1566807869025766</v>
+        <v>0.1431216606807459</v>
       </c>
       <c r="D91">
-        <v>-0.2356281913422918</v>
+        <v>0.02334160305149216</v>
       </c>
       <c r="E91">
-        <v>0.0104149414690313</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07129901831514929</v>
+      </c>
+      <c r="F91">
+        <v>-0.1598891617613288</v>
+      </c>
+      <c r="G91">
+        <v>0.009993222490201433</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.0146349146903042</v>
+        <v>-0.2060613352737245</v>
       </c>
       <c r="C92">
-        <v>0.3153182141949964</v>
+        <v>-0.260125913506582</v>
       </c>
       <c r="D92">
-        <v>0.09866366373480816</v>
+        <v>0.0458531383638421</v>
       </c>
       <c r="E92">
-        <v>0.01787826064587586</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.003062676206392282</v>
+      </c>
+      <c r="F92">
+        <v>-0.0750504738298097</v>
+      </c>
+      <c r="G92">
+        <v>0.07419151887088674</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.04608561185642011</v>
+        <v>-0.2306207156341326</v>
       </c>
       <c r="C93">
-        <v>0.3165494205209207</v>
+        <v>-0.3217761455986091</v>
       </c>
       <c r="D93">
-        <v>0.2129063292110795</v>
+        <v>0.01667371389519009</v>
       </c>
       <c r="E93">
-        <v>0.04567802046938522</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.009077879175210348</v>
+      </c>
+      <c r="F93">
+        <v>-0.04419182794605534</v>
+      </c>
+      <c r="G93">
+        <v>0.005302557186764252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.02339414340551423</v>
+        <v>-0.3028562457794817</v>
       </c>
       <c r="C94">
-        <v>0.1973999592985475</v>
+        <v>0.1927195386211801</v>
       </c>
       <c r="D94">
-        <v>-0.2538681164603927</v>
+        <v>0.01415311179944134</v>
       </c>
       <c r="E94">
-        <v>0.06300164699976088</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1500220072767438</v>
+      </c>
+      <c r="F94">
+        <v>-0.4953872318872894</v>
+      </c>
+      <c r="G94">
+        <v>-0.1687882992382406</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.00543034707414837</v>
+        <v>-0.08396333971022336</v>
       </c>
       <c r="C95">
-        <v>0.04776346535557</v>
+        <v>0.07490109903674054</v>
       </c>
       <c r="D95">
-        <v>-0.09247065372071567</v>
+        <v>0.008180991499868435</v>
       </c>
       <c r="E95">
-        <v>0.1120653326038021</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06484653539768716</v>
+      </c>
+      <c r="F95">
+        <v>0.1548139670946582</v>
+      </c>
+      <c r="G95">
+        <v>-0.07180607917261203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.007979353149011936</v>
+        <v>-0.1979739804375761</v>
       </c>
       <c r="C98">
-        <v>0.1605910307264999</v>
+        <v>0.0418192400955194</v>
       </c>
       <c r="D98">
-        <v>-0.1211531729527345</v>
+        <v>0.01430283710331848</v>
       </c>
       <c r="E98">
-        <v>0.05693489069024953</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06451909353131478</v>
+      </c>
+      <c r="F98">
+        <v>0.249449959134391</v>
+      </c>
+      <c r="G98">
+        <v>-0.03284290084571162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007214112789152806</v>
+        <v>-0.01029024725321036</v>
       </c>
       <c r="C101">
-        <v>0.01760168980974899</v>
+        <v>0.01983534506654861</v>
       </c>
       <c r="D101">
-        <v>-0.01119859212088714</v>
+        <v>-0.007297412159168959</v>
       </c>
       <c r="E101">
-        <v>-0.007348577839519238</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.007729550180444908</v>
+      </c>
+      <c r="F101">
+        <v>-0.01179732213297368</v>
+      </c>
+      <c r="G101">
+        <v>0.04171422799553471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01525595985428053</v>
+        <v>-0.1177557651157413</v>
       </c>
       <c r="C102">
-        <v>0.09100612652621506</v>
+        <v>0.08576482505945547</v>
       </c>
       <c r="D102">
-        <v>-0.1295448592094016</v>
+        <v>-0.001724199658513756</v>
       </c>
       <c r="E102">
-        <v>0.01553868790959873</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03003156705496493</v>
+      </c>
+      <c r="F102">
+        <v>-0.03505503476666397</v>
+      </c>
+      <c r="G102">
+        <v>-0.001025548170030402</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001430051522797432</v>
+        <v>-0.003643666481691488</v>
       </c>
       <c r="C103">
-        <v>0.01278984220467048</v>
+        <v>0.004885151503500167</v>
       </c>
       <c r="D103">
-        <v>-0.02648336179229502</v>
+        <v>-0.000164727468557435</v>
       </c>
       <c r="E103">
-        <v>-0.01509145004179161</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.00171697766011447</v>
+      </c>
+      <c r="F103">
+        <v>-0.008460502989099828</v>
+      </c>
+      <c r="G103">
+        <v>0.01685044451175683</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9825762586247335</v>
+        <v>-0.02891401291655745</v>
       </c>
       <c r="C104">
-        <v>-0.1272028928992684</v>
+        <v>-0.03840276588030586</v>
       </c>
       <c r="D104">
-        <v>0.008125163358630392</v>
+        <v>-0.9875671976158339</v>
       </c>
       <c r="E104">
-        <v>-0.02591388826422744</v>
+        <v>0.03769232187558217</v>
+      </c>
+      <c r="F104">
+        <v>-0.04110559780621111</v>
+      </c>
+      <c r="G104">
+        <v>-0.01193874934141495</v>
       </c>
     </row>
   </sheetData>
